--- a/public/data/Masked Sample Data - claim & line.xlsx
+++ b/public/data/Masked Sample Data - claim & line.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soumyajitsa\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{349E8307-B7BA-49F0-BC08-9D3F10C782CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62B1D7CC-065B-41AF-B24C-CB3125D34BBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{AB4DE5BD-891F-4453-8ADA-E5F02E9C3FFA}"/>
   </bookViews>
@@ -1182,7 +1182,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1522,8 +1522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B33FADC7-C3ED-430A-A8EA-82FEDFEAF62C}">
   <dimension ref="A1:BL41"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AB16" sqref="AB16"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="BN24" sqref="BN24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9368,8 +9368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A0BE5B2-12AF-4279-BFD9-963F465A8B05}">
   <dimension ref="A1:W377"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A173" workbookViewId="0">
-      <selection activeCell="G186" sqref="G186"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H336" sqref="H336"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -22820,7 +22820,7 @@
     </row>
     <row r="190" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A190" s="7" t="s">
-        <v>165</v>
+        <v>300</v>
       </c>
       <c r="B190" s="7">
         <v>858</v>
@@ -22891,7 +22891,7 @@
     </row>
     <row r="191" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A191" s="7" t="s">
-        <v>165</v>
+        <v>300</v>
       </c>
       <c r="B191" s="7">
         <v>1716</v>
@@ -22962,7 +22962,7 @@
     </row>
     <row r="192" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A192" s="7" t="s">
-        <v>199</v>
+        <v>301</v>
       </c>
       <c r="B192" s="7">
         <v>2001.1</v>
@@ -23033,7 +23033,7 @@
     </row>
     <row r="193" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A193" s="7" t="s">
-        <v>199</v>
+        <v>301</v>
       </c>
       <c r="B193" s="7">
         <v>36.700000000000003</v>
@@ -23104,7 +23104,7 @@
     </row>
     <row r="194" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A194" s="7" t="s">
-        <v>199</v>
+        <v>301</v>
       </c>
       <c r="B194" s="7">
         <v>313.8</v>
@@ -23175,7 +23175,7 @@
     </row>
     <row r="195" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A195" s="7" t="s">
-        <v>199</v>
+        <v>301</v>
       </c>
       <c r="B195" s="7">
         <v>10515</v>
@@ -23246,7 +23246,7 @@
     </row>
     <row r="196" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A196" s="7" t="s">
-        <v>199</v>
+        <v>301</v>
       </c>
       <c r="B196" s="7">
         <v>73.7</v>
@@ -23317,7 +23317,7 @@
     </row>
     <row r="197" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A197" s="7" t="s">
-        <v>199</v>
+        <v>301</v>
       </c>
       <c r="B197" s="7">
         <v>23167.7</v>
@@ -23388,7 +23388,7 @@
     </row>
     <row r="198" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A198" s="7" t="s">
-        <v>199</v>
+        <v>301</v>
       </c>
       <c r="B198" s="7">
         <v>3854.2</v>
@@ -23459,7 +23459,7 @@
     </row>
     <row r="199" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A199" s="7" t="s">
-        <v>199</v>
+        <v>301</v>
       </c>
       <c r="B199" s="7">
         <v>581</v>
@@ -23530,7 +23530,7 @@
     </row>
     <row r="200" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A200" s="7" t="s">
-        <v>199</v>
+        <v>301</v>
       </c>
       <c r="B200" s="7">
         <v>4900.2</v>
@@ -23601,7 +23601,7 @@
     </row>
     <row r="201" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A201" s="7" t="s">
-        <v>199</v>
+        <v>301</v>
       </c>
       <c r="B201" s="7">
         <v>2450.1</v>
@@ -23672,7 +23672,7 @@
     </row>
     <row r="202" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A202" s="7" t="s">
-        <v>199</v>
+        <v>301</v>
       </c>
       <c r="B202" s="7">
         <v>2450.1</v>
@@ -23743,7 +23743,7 @@
     </row>
     <row r="203" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A203" s="7" t="s">
-        <v>199</v>
+        <v>301</v>
       </c>
       <c r="B203" s="7">
         <v>2450.1</v>
@@ -23814,7 +23814,7 @@
     </row>
     <row r="204" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A204" s="7" t="s">
-        <v>199</v>
+        <v>301</v>
       </c>
       <c r="B204" s="7">
         <v>423.8</v>
@@ -23885,7 +23885,7 @@
     </row>
     <row r="205" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A205" s="7" t="s">
-        <v>199</v>
+        <v>301</v>
       </c>
       <c r="B205" s="7">
         <v>93.9</v>
@@ -23956,7 +23956,7 @@
     </row>
     <row r="206" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A206" s="7" t="s">
-        <v>199</v>
+        <v>301</v>
       </c>
       <c r="B206" s="7">
         <v>320.8</v>
@@ -24027,7 +24027,7 @@
     </row>
     <row r="207" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A207" s="7" t="s">
-        <v>199</v>
+        <v>301</v>
       </c>
       <c r="B207" s="7">
         <v>363.7</v>
@@ -24098,7 +24098,7 @@
     </row>
     <row r="208" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A208" s="7" t="s">
-        <v>199</v>
+        <v>301</v>
       </c>
       <c r="B208" s="7">
         <v>608.9</v>
@@ -24169,7 +24169,7 @@
     </row>
     <row r="209" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A209" s="7" t="s">
-        <v>199</v>
+        <v>301</v>
       </c>
       <c r="B209" s="7">
         <v>177.4</v>
@@ -24240,7 +24240,7 @@
     </row>
     <row r="210" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A210" s="7" t="s">
-        <v>199</v>
+        <v>301</v>
       </c>
       <c r="B210" s="7">
         <v>59.8</v>
@@ -24311,7 +24311,7 @@
     </row>
     <row r="211" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A211" s="7" t="s">
-        <v>199</v>
+        <v>301</v>
       </c>
       <c r="B211" s="7">
         <v>33.200000000000003</v>
@@ -24382,7 +24382,7 @@
     </row>
     <row r="212" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A212" s="7" t="s">
-        <v>199</v>
+        <v>301</v>
       </c>
       <c r="B212" s="7">
         <v>1529.5</v>
@@ -24453,7 +24453,7 @@
     </row>
     <row r="213" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A213" s="7" t="s">
-        <v>199</v>
+        <v>301</v>
       </c>
       <c r="B213" s="7">
         <v>1202</v>
@@ -24524,7 +24524,7 @@
     </row>
     <row r="214" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A214" s="7" t="s">
-        <v>199</v>
+        <v>301</v>
       </c>
       <c r="B214" s="7">
         <v>1509.6</v>
@@ -24595,7 +24595,7 @@
     </row>
     <row r="215" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A215" s="7" t="s">
-        <v>200</v>
+        <v>302</v>
       </c>
       <c r="B215" s="7">
         <v>7310</v>
@@ -24666,7 +24666,7 @@
     </row>
     <row r="216" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A216" s="7" t="s">
-        <v>200</v>
+        <v>302</v>
       </c>
       <c r="B216" s="7">
         <v>1020</v>
@@ -24737,7 +24737,7 @@
     </row>
     <row r="217" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A217" s="7" t="s">
-        <v>200</v>
+        <v>302</v>
       </c>
       <c r="B217" s="7">
         <v>2040</v>
@@ -24808,7 +24808,7 @@
     </row>
     <row r="218" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A218" s="7" t="s">
-        <v>200</v>
+        <v>302</v>
       </c>
       <c r="B218" s="7">
         <v>335</v>
@@ -24879,7 +24879,7 @@
     </row>
     <row r="219" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A219" s="7" t="s">
-        <v>200</v>
+        <v>302</v>
       </c>
       <c r="B219" s="7">
         <v>2127</v>
@@ -24950,7 +24950,7 @@
     </row>
     <row r="220" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A220" s="7" t="s">
-        <v>208</v>
+        <v>303</v>
       </c>
       <c r="B220" s="7">
         <v>988</v>
@@ -25021,7 +25021,7 @@
     </row>
     <row r="221" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A221" s="7" t="s">
-        <v>212</v>
+        <v>304</v>
       </c>
       <c r="B221" s="7">
         <v>660</v>
@@ -25092,7 +25092,7 @@
     </row>
     <row r="222" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A222" s="7" t="s">
-        <v>212</v>
+        <v>304</v>
       </c>
       <c r="B222" s="7">
         <v>11</v>
@@ -25163,7 +25163,7 @@
     </row>
     <row r="223" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A223" s="7" t="s">
-        <v>217</v>
+        <v>305</v>
       </c>
       <c r="B223" s="7">
         <v>550</v>
@@ -25234,7 +25234,7 @@
     </row>
     <row r="224" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A224" s="7" t="s">
-        <v>221</v>
+        <v>306</v>
       </c>
       <c r="B224" s="7">
         <v>2582</v>
@@ -25305,7 +25305,7 @@
     </row>
     <row r="225" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A225" s="7" t="s">
-        <v>225</v>
+        <v>307</v>
       </c>
       <c r="B225" s="7">
         <v>2582</v>
@@ -25376,7 +25376,7 @@
     </row>
     <row r="226" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A226" s="7" t="s">
-        <v>226</v>
+        <v>308</v>
       </c>
       <c r="B226" s="7">
         <v>461.5</v>
@@ -25447,7 +25447,7 @@
     </row>
     <row r="227" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A227" s="7" t="s">
-        <v>226</v>
+        <v>308</v>
       </c>
       <c r="B227" s="7">
         <v>13</v>
@@ -25518,7 +25518,7 @@
     </row>
     <row r="228" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A228" s="7" t="s">
-        <v>226</v>
+        <v>308</v>
       </c>
       <c r="B228" s="7">
         <v>13</v>
@@ -25589,7 +25589,7 @@
     </row>
     <row r="229" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A229" s="7" t="s">
-        <v>226</v>
+        <v>308</v>
       </c>
       <c r="B229" s="7">
         <v>4.5</v>
@@ -25660,7 +25660,7 @@
     </row>
     <row r="230" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A230" s="7" t="s">
-        <v>226</v>
+        <v>308</v>
       </c>
       <c r="B230" s="7">
         <v>23.25</v>
@@ -25731,7 +25731,7 @@
     </row>
     <row r="231" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A231" s="7" t="s">
-        <v>226</v>
+        <v>308</v>
       </c>
       <c r="B231" s="7">
         <v>26</v>
@@ -25802,7 +25802,7 @@
     </row>
     <row r="232" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A232" s="7" t="s">
-        <v>226</v>
+        <v>308</v>
       </c>
       <c r="B232" s="7">
         <v>4.5</v>
@@ -25873,7 +25873,7 @@
     </row>
     <row r="233" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A233" s="7" t="s">
-        <v>226</v>
+        <v>308</v>
       </c>
       <c r="B233" s="7">
         <v>23.25</v>
@@ -25944,7 +25944,7 @@
     </row>
     <row r="234" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A234" s="7" t="s">
-        <v>226</v>
+        <v>308</v>
       </c>
       <c r="B234" s="7">
         <v>13</v>
@@ -26015,7 +26015,7 @@
     </row>
     <row r="235" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A235" s="7" t="s">
-        <v>226</v>
+        <v>308</v>
       </c>
       <c r="B235" s="7">
         <v>2.25</v>
@@ -26086,7 +26086,7 @@
     </row>
     <row r="236" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A236" s="7" t="s">
-        <v>226</v>
+        <v>308</v>
       </c>
       <c r="B236" s="7">
         <v>23.25</v>
@@ -26157,7 +26157,7 @@
     </row>
     <row r="237" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A237" s="7" t="s">
-        <v>226</v>
+        <v>308</v>
       </c>
       <c r="B237" s="7">
         <v>86.75</v>
@@ -26228,7 +26228,7 @@
     </row>
     <row r="238" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A238" s="7" t="s">
-        <v>226</v>
+        <v>308</v>
       </c>
       <c r="B238" s="7">
         <v>622.75</v>
@@ -26299,7 +26299,7 @@
     </row>
     <row r="239" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A239" s="7" t="s">
-        <v>226</v>
+        <v>308</v>
       </c>
       <c r="B239" s="7">
         <v>569.5</v>
@@ -26370,7 +26370,7 @@
     </row>
     <row r="240" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A240" s="7" t="s">
-        <v>226</v>
+        <v>308</v>
       </c>
       <c r="B240" s="7">
         <v>130</v>
@@ -26441,7 +26441,7 @@
     </row>
     <row r="241" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A241" s="7" t="s">
-        <v>226</v>
+        <v>308</v>
       </c>
       <c r="B241" s="7">
         <v>313</v>
@@ -26512,7 +26512,7 @@
     </row>
     <row r="242" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A242" s="7" t="s">
-        <v>226</v>
+        <v>308</v>
       </c>
       <c r="B242" s="7">
         <v>507.25</v>
@@ -26583,7 +26583,7 @@
     </row>
     <row r="243" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A243" s="7" t="s">
-        <v>226</v>
+        <v>308</v>
       </c>
       <c r="B243" s="7">
         <v>313</v>
@@ -26654,7 +26654,7 @@
     </row>
     <row r="244" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A244" s="7" t="s">
-        <v>226</v>
+        <v>308</v>
       </c>
       <c r="B244" s="7">
         <v>622.75</v>
@@ -26725,7 +26725,7 @@
     </row>
     <row r="245" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A245" s="7" t="s">
-        <v>226</v>
+        <v>308</v>
       </c>
       <c r="B245" s="7">
         <v>623.25</v>
@@ -26796,7 +26796,7 @@
     </row>
     <row r="246" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A246" s="7" t="s">
-        <v>226</v>
+        <v>308</v>
       </c>
       <c r="B246" s="7">
         <v>87.5</v>
@@ -26867,7 +26867,7 @@
     </row>
     <row r="247" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A247" s="7" t="s">
-        <v>226</v>
+        <v>308</v>
       </c>
       <c r="B247" s="7">
         <v>107.5</v>
@@ -26938,7 +26938,7 @@
     </row>
     <row r="248" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A248" s="7" t="s">
-        <v>226</v>
+        <v>308</v>
       </c>
       <c r="B248" s="7">
         <v>161.25</v>
@@ -27009,7 +27009,7 @@
     </row>
     <row r="249" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A249" s="7" t="s">
-        <v>226</v>
+        <v>308</v>
       </c>
       <c r="B249" s="7">
         <v>190.25</v>
@@ -27080,7 +27080,7 @@
     </row>
     <row r="250" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A250" s="7" t="s">
-        <v>226</v>
+        <v>308</v>
       </c>
       <c r="B250" s="7">
         <v>190.25</v>
@@ -27151,7 +27151,7 @@
     </row>
     <row r="251" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A251" s="7" t="s">
-        <v>226</v>
+        <v>308</v>
       </c>
       <c r="B251" s="7">
         <v>161.25</v>
@@ -27222,7 +27222,7 @@
     </row>
     <row r="252" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A252" s="7" t="s">
-        <v>226</v>
+        <v>308</v>
       </c>
       <c r="B252" s="7">
         <v>510.5</v>
@@ -27293,7 +27293,7 @@
     </row>
     <row r="253" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A253" s="7" t="s">
-        <v>226</v>
+        <v>308</v>
       </c>
       <c r="B253" s="7">
         <v>1751.5</v>
@@ -27364,7 +27364,7 @@
     </row>
     <row r="254" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A254" s="7" t="s">
-        <v>226</v>
+        <v>308</v>
       </c>
       <c r="B254" s="7">
         <v>1922.75</v>
@@ -27435,7 +27435,7 @@
     </row>
     <row r="255" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A255" s="7" t="s">
-        <v>226</v>
+        <v>308</v>
       </c>
       <c r="B255" s="7">
         <v>1922.75</v>
@@ -27506,7 +27506,7 @@
     </row>
     <row r="256" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A256" s="7" t="s">
-        <v>226</v>
+        <v>308</v>
       </c>
       <c r="B256" s="7">
         <v>388.5</v>
@@ -27577,7 +27577,7 @@
     </row>
     <row r="257" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A257" s="7" t="s">
-        <v>226</v>
+        <v>308</v>
       </c>
       <c r="B257" s="7">
         <v>118.5</v>
@@ -27648,7 +27648,7 @@
     </row>
     <row r="258" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A258" s="7" t="s">
-        <v>226</v>
+        <v>308</v>
       </c>
       <c r="B258" s="7">
         <v>476.25</v>
@@ -27719,7 +27719,7 @@
     </row>
     <row r="259" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A259" s="7" t="s">
-        <v>226</v>
+        <v>308</v>
       </c>
       <c r="B259" s="7">
         <v>476.25</v>
@@ -27790,7 +27790,7 @@
     </row>
     <row r="260" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A260" s="7" t="s">
-        <v>226</v>
+        <v>308</v>
       </c>
       <c r="B260" s="7">
         <v>2634</v>
@@ -27861,7 +27861,7 @@
     </row>
     <row r="261" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A261" s="7" t="s">
-        <v>226</v>
+        <v>308</v>
       </c>
       <c r="B261" s="7">
         <v>3859</v>
@@ -27932,7 +27932,7 @@
     </row>
     <row r="262" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A262" s="7" t="s">
-        <v>226</v>
+        <v>308</v>
       </c>
       <c r="B262" s="7">
         <v>3548.5</v>
@@ -28003,7 +28003,7 @@
     </row>
     <row r="263" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A263" s="7" t="s">
-        <v>226</v>
+        <v>308</v>
       </c>
       <c r="B263" s="7">
         <v>863.75</v>
@@ -28074,7 +28074,7 @@
     </row>
     <row r="264" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A264" s="7" t="s">
-        <v>226</v>
+        <v>308</v>
       </c>
       <c r="B264" s="7">
         <v>4464.25</v>
@@ -28145,7 +28145,7 @@
     </row>
     <row r="265" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A265" s="7" t="s">
-        <v>226</v>
+        <v>308</v>
       </c>
       <c r="B265" s="7">
         <v>228.75</v>
@@ -28216,7 +28216,7 @@
     </row>
     <row r="266" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A266" s="7" t="s">
-        <v>226</v>
+        <v>308</v>
       </c>
       <c r="B266" s="7">
         <v>694.5</v>
@@ -28287,7 +28287,7 @@
     </row>
     <row r="267" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A267" s="7" t="s">
-        <v>226</v>
+        <v>308</v>
       </c>
       <c r="B267" s="7">
         <v>228.75</v>
@@ -28358,7 +28358,7 @@
     </row>
     <row r="268" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A268" s="7" t="s">
-        <v>226</v>
+        <v>308</v>
       </c>
       <c r="B268" s="7">
         <v>128</v>
@@ -28429,7 +28429,7 @@
     </row>
     <row r="269" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A269" s="7" t="s">
-        <v>226</v>
+        <v>308</v>
       </c>
       <c r="B269" s="7">
         <v>228.75</v>
@@ -28500,7 +28500,7 @@
     </row>
     <row r="270" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A270" s="7" t="s">
-        <v>226</v>
+        <v>308</v>
       </c>
       <c r="B270" s="7">
         <v>1567.5</v>
@@ -28571,7 +28571,7 @@
     </row>
     <row r="271" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A271" s="7" t="s">
-        <v>226</v>
+        <v>308</v>
       </c>
       <c r="B271" s="7">
         <v>407</v>
@@ -28642,7 +28642,7 @@
     </row>
     <row r="272" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A272" s="7" t="s">
-        <v>226</v>
+        <v>308</v>
       </c>
       <c r="B272" s="7">
         <v>407</v>
@@ -28713,7 +28713,7 @@
     </row>
     <row r="273" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A273" s="7" t="s">
-        <v>226</v>
+        <v>308</v>
       </c>
       <c r="B273" s="7">
         <v>2574</v>
@@ -28784,7 +28784,7 @@
     </row>
     <row r="274" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A274" s="7" t="s">
-        <v>236</v>
+        <v>309</v>
       </c>
       <c r="B274" s="7">
         <v>806</v>
@@ -28855,7 +28855,7 @@
     </row>
     <row r="275" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A275" s="7" t="s">
-        <v>236</v>
+        <v>309</v>
       </c>
       <c r="B275" s="7">
         <v>34.99</v>
@@ -28926,7 +28926,7 @@
     </row>
     <row r="276" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A276" s="7" t="s">
-        <v>240</v>
+        <v>310</v>
       </c>
       <c r="B276" s="7">
         <v>46</v>
@@ -28997,7 +28997,7 @@
     </row>
     <row r="277" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A277" s="7" t="s">
-        <v>240</v>
+        <v>310</v>
       </c>
       <c r="B277" s="7">
         <v>306</v>
@@ -29068,7 +29068,7 @@
     </row>
     <row r="278" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A278" s="7" t="s">
-        <v>240</v>
+        <v>310</v>
       </c>
       <c r="B278" s="7">
         <v>169</v>
@@ -29139,7 +29139,7 @@
     </row>
     <row r="279" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A279" s="7" t="s">
-        <v>240</v>
+        <v>310</v>
       </c>
       <c r="B279" s="7">
         <v>613</v>
@@ -29210,7 +29210,7 @@
     </row>
     <row r="280" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A280" s="7" t="s">
-        <v>244</v>
+        <v>311</v>
       </c>
       <c r="B280" s="7">
         <v>787.75</v>
@@ -29281,7 +29281,7 @@
     </row>
     <row r="281" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A281" s="7" t="s">
-        <v>244</v>
+        <v>311</v>
       </c>
       <c r="B281" s="7">
         <v>2954</v>
@@ -29352,7 +29352,7 @@
     </row>
     <row r="282" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A282" s="7" t="s">
-        <v>244</v>
+        <v>311</v>
       </c>
       <c r="B282" s="7">
         <v>2120</v>
@@ -29423,7 +29423,7 @@
     </row>
     <row r="283" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A283" s="7" t="s">
-        <v>244</v>
+        <v>311</v>
       </c>
       <c r="B283" s="7">
         <v>21572.25</v>
@@ -29494,7 +29494,7 @@
     </row>
     <row r="284" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A284" s="7" t="s">
-        <v>244</v>
+        <v>311</v>
       </c>
       <c r="B284" s="7">
         <v>1534</v>
@@ -29565,7 +29565,7 @@
     </row>
     <row r="285" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A285" s="7" t="s">
-        <v>244</v>
+        <v>311</v>
       </c>
       <c r="B285" s="7">
         <v>37</v>
@@ -29636,7 +29636,7 @@
     </row>
     <row r="286" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A286" s="7" t="s">
-        <v>244</v>
+        <v>311</v>
       </c>
       <c r="B286" s="7">
         <v>37.75</v>
@@ -29707,7 +29707,7 @@
     </row>
     <row r="287" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A287" s="7" t="s">
-        <v>244</v>
+        <v>311</v>
       </c>
       <c r="B287" s="7">
         <v>35</v>
@@ -29778,7 +29778,7 @@
     </row>
     <row r="288" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A288" s="7" t="s">
-        <v>244</v>
+        <v>311</v>
       </c>
       <c r="B288" s="7">
         <v>38</v>
@@ -29849,7 +29849,7 @@
     </row>
     <row r="289" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A289" s="7" t="s">
-        <v>244</v>
+        <v>311</v>
       </c>
       <c r="B289" s="7">
         <v>35</v>
@@ -29920,7 +29920,7 @@
     </row>
     <row r="290" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A290" s="7" t="s">
-        <v>244</v>
+        <v>311</v>
       </c>
       <c r="B290" s="7">
         <v>69.25</v>
@@ -29991,7 +29991,7 @@
     </row>
     <row r="291" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A291" s="7" t="s">
-        <v>244</v>
+        <v>311</v>
       </c>
       <c r="B291" s="7">
         <v>48</v>
@@ -30062,7 +30062,7 @@
     </row>
     <row r="292" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A292" s="7" t="s">
-        <v>244</v>
+        <v>311</v>
       </c>
       <c r="B292" s="7">
         <v>56</v>
@@ -30133,7 +30133,7 @@
     </row>
     <row r="293" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A293" s="7" t="s">
-        <v>244</v>
+        <v>311</v>
       </c>
       <c r="B293" s="7">
         <v>184.5</v>
@@ -30204,7 +30204,7 @@
     </row>
     <row r="294" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A294" s="7" t="s">
-        <v>244</v>
+        <v>311</v>
       </c>
       <c r="B294" s="7">
         <v>228</v>
@@ -30275,7 +30275,7 @@
     </row>
     <row r="295" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A295" s="7" t="s">
-        <v>244</v>
+        <v>311</v>
       </c>
       <c r="B295" s="7">
         <v>5077.25</v>
@@ -30346,7 +30346,7 @@
     </row>
     <row r="296" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A296" s="7" t="s">
-        <v>244</v>
+        <v>311</v>
       </c>
       <c r="B296" s="7">
         <v>439.75</v>
@@ -30417,7 +30417,7 @@
     </row>
     <row r="297" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A297" s="7" t="s">
-        <v>253</v>
+        <v>312</v>
       </c>
       <c r="B297" s="7">
         <v>31</v>
@@ -30488,7 +30488,7 @@
     </row>
     <row r="298" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A298" s="7" t="s">
-        <v>253</v>
+        <v>312</v>
       </c>
       <c r="B298" s="7">
         <v>46</v>
@@ -30559,7 +30559,7 @@
     </row>
     <row r="299" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A299" s="7" t="s">
-        <v>253</v>
+        <v>312</v>
       </c>
       <c r="B299" s="7">
         <v>36</v>
@@ -30630,7 +30630,7 @@
     </row>
     <row r="300" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A300" s="7" t="s">
-        <v>253</v>
+        <v>312</v>
       </c>
       <c r="B300" s="7">
         <v>98</v>
@@ -30701,7 +30701,7 @@
     </row>
     <row r="301" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A301" s="7" t="s">
-        <v>253</v>
+        <v>312</v>
       </c>
       <c r="B301" s="7">
         <v>107</v>
@@ -30772,7 +30772,7 @@
     </row>
     <row r="302" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A302" s="7" t="s">
-        <v>253</v>
+        <v>312</v>
       </c>
       <c r="B302" s="7">
         <v>324</v>
@@ -30843,7 +30843,7 @@
     </row>
     <row r="303" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A303" s="7" t="s">
-        <v>253</v>
+        <v>312</v>
       </c>
       <c r="B303" s="7">
         <v>36</v>
@@ -30914,7 +30914,7 @@
     </row>
     <row r="304" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A304" s="7" t="s">
-        <v>253</v>
+        <v>312</v>
       </c>
       <c r="B304" s="7">
         <v>25</v>
@@ -30985,7 +30985,7 @@
     </row>
     <row r="305" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A305" s="7" t="s">
-        <v>257</v>
+        <v>313</v>
       </c>
       <c r="B305" s="7">
         <v>36000</v>
@@ -31056,7 +31056,7 @@
     </row>
     <row r="306" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A306" s="7" t="s">
-        <v>257</v>
+        <v>313</v>
       </c>
       <c r="B306" s="7">
         <v>19200</v>
@@ -31127,7 +31127,7 @@
     </row>
     <row r="307" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A307" s="7" t="s">
-        <v>257</v>
+        <v>313</v>
       </c>
       <c r="B307" s="7">
         <v>28024.1</v>
@@ -31198,7 +31198,7 @@
     </row>
     <row r="308" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A308" s="7" t="s">
-        <v>257</v>
+        <v>313</v>
       </c>
       <c r="B308" s="7">
         <v>393.8</v>
@@ -31269,7 +31269,7 @@
     </row>
     <row r="309" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A309" s="7" t="s">
-        <v>257</v>
+        <v>313</v>
       </c>
       <c r="B309" s="7">
         <v>1588.35</v>
@@ -31340,7 +31340,7 @@
     </row>
     <row r="310" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A310" s="7" t="s">
-        <v>257</v>
+        <v>313</v>
       </c>
       <c r="B310" s="7">
         <v>3715</v>
@@ -31411,7 +31411,7 @@
     </row>
     <row r="311" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A311" s="7" t="s">
-        <v>257</v>
+        <v>313</v>
       </c>
       <c r="B311" s="7">
         <v>7172.7</v>
@@ -31482,7 +31482,7 @@
     </row>
     <row r="312" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A312" s="7" t="s">
-        <v>257</v>
+        <v>313</v>
       </c>
       <c r="B312" s="7">
         <v>247312.03</v>
@@ -31553,7 +31553,7 @@
     </row>
     <row r="313" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A313" s="7" t="s">
-        <v>257</v>
+        <v>313</v>
       </c>
       <c r="B313" s="7">
         <v>72</v>
@@ -31624,7 +31624,7 @@
     </row>
     <row r="314" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A314" s="7" t="s">
-        <v>257</v>
+        <v>313</v>
       </c>
       <c r="B314" s="7">
         <v>24456</v>
@@ -31695,7 +31695,7 @@
     </row>
     <row r="315" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A315" s="7" t="s">
-        <v>257</v>
+        <v>313</v>
       </c>
       <c r="B315" s="7">
         <v>280</v>
@@ -31766,7 +31766,7 @@
     </row>
     <row r="316" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A316" s="7" t="s">
-        <v>257</v>
+        <v>313</v>
       </c>
       <c r="B316" s="7">
         <v>7910</v>
@@ -31837,7 +31837,7 @@
     </row>
     <row r="317" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A317" s="7" t="s">
-        <v>257</v>
+        <v>313</v>
       </c>
       <c r="B317" s="7">
         <v>584</v>
@@ -31908,7 +31908,7 @@
     </row>
     <row r="318" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A318" s="7" t="s">
-        <v>257</v>
+        <v>313</v>
       </c>
       <c r="B318" s="7">
         <v>56</v>
@@ -31979,7 +31979,7 @@
     </row>
     <row r="319" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A319" s="7" t="s">
-        <v>257</v>
+        <v>313</v>
       </c>
       <c r="B319" s="7">
         <v>224</v>
@@ -32050,7 +32050,7 @@
     </row>
     <row r="320" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A320" s="7" t="s">
-        <v>257</v>
+        <v>313</v>
       </c>
       <c r="B320" s="7">
         <v>252</v>
@@ -32121,7 +32121,7 @@
     </row>
     <row r="321" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A321" s="7" t="s">
-        <v>257</v>
+        <v>313</v>
       </c>
       <c r="B321" s="7">
         <v>355</v>
@@ -32192,7 +32192,7 @@
     </row>
     <row r="322" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A322" s="7" t="s">
-        <v>257</v>
+        <v>313</v>
       </c>
       <c r="B322" s="7">
         <v>5856</v>
@@ -32263,7 +32263,7 @@
     </row>
     <row r="323" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A323" s="7" t="s">
-        <v>257</v>
+        <v>313</v>
       </c>
       <c r="B323" s="7">
         <v>64815</v>
@@ -32334,7 +32334,7 @@
     </row>
     <row r="324" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A324" s="7" t="s">
-        <v>257</v>
+        <v>313</v>
       </c>
       <c r="B324" s="7">
         <v>1083</v>
@@ -32405,7 +32405,7 @@
     </row>
     <row r="325" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A325" s="7" t="s">
-        <v>257</v>
+        <v>313</v>
       </c>
       <c r="B325" s="7">
         <v>1332</v>
@@ -32476,7 +32476,7 @@
     </row>
     <row r="326" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A326" s="7" t="s">
-        <v>257</v>
+        <v>313</v>
       </c>
       <c r="B326" s="7">
         <v>1384</v>
@@ -32547,7 +32547,7 @@
     </row>
     <row r="327" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A327" s="7" t="s">
-        <v>257</v>
+        <v>313</v>
       </c>
       <c r="B327" s="7">
         <v>688</v>
@@ -32618,7 +32618,7 @@
     </row>
     <row r="328" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A328" s="7" t="s">
-        <v>257</v>
+        <v>313</v>
       </c>
       <c r="B328" s="7">
         <v>1692</v>
@@ -32689,7 +32689,7 @@
     </row>
     <row r="329" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A329" s="7" t="s">
-        <v>257</v>
+        <v>313</v>
       </c>
       <c r="B329" s="7">
         <v>2672</v>
@@ -32760,7 +32760,7 @@
     </row>
     <row r="330" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A330" s="7" t="s">
-        <v>257</v>
+        <v>313</v>
       </c>
       <c r="B330" s="7">
         <v>242</v>
@@ -32831,7 +32831,7 @@
     </row>
     <row r="331" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A331" s="7" t="s">
-        <v>257</v>
+        <v>313</v>
       </c>
       <c r="B331" s="7">
         <v>1170</v>
@@ -32902,7 +32902,7 @@
     </row>
     <row r="332" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A332" s="7" t="s">
-        <v>257</v>
+        <v>313</v>
       </c>
       <c r="B332" s="7">
         <v>287</v>
@@ -32973,7 +32973,7 @@
     </row>
     <row r="333" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A333" s="7" t="s">
-        <v>257</v>
+        <v>313</v>
       </c>
       <c r="B333" s="7">
         <v>393</v>
@@ -33044,7 +33044,7 @@
     </row>
     <row r="334" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A334" s="7" t="s">
-        <v>257</v>
+        <v>313</v>
       </c>
       <c r="B334" s="7">
         <v>7419</v>
@@ -33115,7 +33115,7 @@
     </row>
     <row r="335" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A335" s="7" t="s">
-        <v>257</v>
+        <v>313</v>
       </c>
       <c r="B335" s="7">
         <v>448</v>
@@ -33186,7 +33186,7 @@
     </row>
     <row r="336" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A336" s="7" t="s">
-        <v>257</v>
+        <v>313</v>
       </c>
       <c r="B336" s="7">
         <v>176</v>
@@ -33257,7 +33257,7 @@
     </row>
     <row r="337" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A337" s="7" t="s">
-        <v>257</v>
+        <v>313</v>
       </c>
       <c r="B337" s="7">
         <v>1434</v>
@@ -33328,7 +33328,7 @@
     </row>
     <row r="338" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A338" s="7" t="s">
-        <v>264</v>
+        <v>314</v>
       </c>
       <c r="B338" s="7">
         <v>185.54</v>
@@ -33399,7 +33399,7 @@
     </row>
     <row r="339" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A339" s="7" t="s">
-        <v>264</v>
+        <v>314</v>
       </c>
       <c r="B339" s="7">
         <v>13</v>
@@ -33470,7 +33470,7 @@
     </row>
     <row r="340" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A340" s="7" t="s">
-        <v>267</v>
+        <v>315</v>
       </c>
       <c r="B340" s="7">
         <v>370</v>
@@ -33541,7 +33541,7 @@
     </row>
     <row r="341" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A341" s="7" t="s">
-        <v>267</v>
+        <v>315</v>
       </c>
       <c r="B341" s="7">
         <v>142</v>
@@ -33612,7 +33612,7 @@
     </row>
     <row r="342" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A342" s="7" t="s">
-        <v>271</v>
+        <v>316</v>
       </c>
       <c r="B342" s="7">
         <v>412</v>
@@ -33683,7 +33683,7 @@
     </row>
     <row r="343" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A343" s="7" t="s">
-        <v>271</v>
+        <v>316</v>
       </c>
       <c r="B343" s="7">
         <v>412</v>
@@ -33754,7 +33754,7 @@
     </row>
     <row r="344" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A344" s="7" t="s">
-        <v>271</v>
+        <v>316</v>
       </c>
       <c r="B344" s="7">
         <v>412</v>
@@ -33825,7 +33825,7 @@
     </row>
     <row r="345" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A345" s="7" t="s">
-        <v>271</v>
+        <v>316</v>
       </c>
       <c r="B345" s="7">
         <v>412</v>
@@ -33896,7 +33896,7 @@
     </row>
     <row r="346" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A346" s="7" t="s">
-        <v>271</v>
+        <v>316</v>
       </c>
       <c r="B346" s="7">
         <v>412</v>
@@ -33967,7 +33967,7 @@
     </row>
     <row r="347" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A347" s="7" t="s">
-        <v>271</v>
+        <v>316</v>
       </c>
       <c r="B347" s="7">
         <v>303</v>
@@ -34038,7 +34038,7 @@
     </row>
     <row r="348" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A348" s="7" t="s">
-        <v>271</v>
+        <v>316</v>
       </c>
       <c r="B348" s="7">
         <v>303</v>
@@ -34109,7 +34109,7 @@
     </row>
     <row r="349" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A349" s="7" t="s">
-        <v>271</v>
+        <v>316</v>
       </c>
       <c r="B349" s="7">
         <v>303</v>
@@ -34180,7 +34180,7 @@
     </row>
     <row r="350" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A350" s="7" t="s">
-        <v>271</v>
+        <v>316</v>
       </c>
       <c r="B350" s="7">
         <v>303</v>
@@ -34251,7 +34251,7 @@
     </row>
     <row r="351" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A351" s="7" t="s">
-        <v>271</v>
+        <v>316</v>
       </c>
       <c r="B351" s="7">
         <v>366</v>
@@ -34322,7 +34322,7 @@
     </row>
     <row r="352" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A352" s="7" t="s">
-        <v>271</v>
+        <v>316</v>
       </c>
       <c r="B352" s="7">
         <v>366</v>
@@ -34393,7 +34393,7 @@
     </row>
     <row r="353" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A353" s="7" t="s">
-        <v>271</v>
+        <v>316</v>
       </c>
       <c r="B353" s="7">
         <v>366</v>
@@ -34464,7 +34464,7 @@
     </row>
     <row r="354" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A354" s="7" t="s">
-        <v>271</v>
+        <v>316</v>
       </c>
       <c r="B354" s="7">
         <v>366</v>
@@ -34535,7 +34535,7 @@
     </row>
     <row r="355" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A355" s="7" t="s">
-        <v>271</v>
+        <v>316</v>
       </c>
       <c r="B355" s="7">
         <v>366</v>
@@ -34606,7 +34606,7 @@
     </row>
     <row r="356" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A356" s="7" t="s">
-        <v>271</v>
+        <v>316</v>
       </c>
       <c r="B356" s="7">
         <v>122</v>
@@ -34677,7 +34677,7 @@
     </row>
     <row r="357" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A357" s="7" t="s">
-        <v>271</v>
+        <v>316</v>
       </c>
       <c r="B357" s="7">
         <v>122</v>
@@ -34748,7 +34748,7 @@
     </row>
     <row r="358" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A358" s="7" t="s">
-        <v>271</v>
+        <v>316</v>
       </c>
       <c r="B358" s="7">
         <v>122</v>
@@ -34819,7 +34819,7 @@
     </row>
     <row r="359" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A359" s="7" t="s">
-        <v>271</v>
+        <v>316</v>
       </c>
       <c r="B359" s="7">
         <v>122</v>
@@ -34890,7 +34890,7 @@
     </row>
     <row r="360" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A360" s="7" t="s">
-        <v>271</v>
+        <v>316</v>
       </c>
       <c r="B360" s="7">
         <v>122</v>
@@ -34961,7 +34961,7 @@
     </row>
     <row r="361" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A361" s="7" t="s">
-        <v>275</v>
+        <v>317</v>
       </c>
       <c r="B361" s="7">
         <v>159</v>
@@ -35032,7 +35032,7 @@
     </row>
     <row r="362" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A362" s="7" t="s">
-        <v>275</v>
+        <v>317</v>
       </c>
       <c r="B362" s="7">
         <v>149</v>
@@ -35103,7 +35103,7 @@
     </row>
     <row r="363" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A363" s="7" t="s">
-        <v>275</v>
+        <v>317</v>
       </c>
       <c r="B363" s="7">
         <v>117</v>
@@ -35174,7 +35174,7 @@
     </row>
     <row r="364" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A364" s="7" t="s">
-        <v>275</v>
+        <v>317</v>
       </c>
       <c r="B364" s="7">
         <v>288</v>
@@ -35245,7 +35245,7 @@
     </row>
     <row r="365" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A365" s="7" t="s">
-        <v>275</v>
+        <v>317</v>
       </c>
       <c r="B365" s="7">
         <v>1737</v>
@@ -35316,7 +35316,7 @@
     </row>
     <row r="366" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A366" s="7" t="s">
-        <v>275</v>
+        <v>317</v>
       </c>
       <c r="B366" s="7">
         <v>170</v>
@@ -35387,7 +35387,7 @@
     </row>
     <row r="367" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A367" s="7" t="s">
-        <v>275</v>
+        <v>317</v>
       </c>
       <c r="B367" s="7">
         <v>53</v>
@@ -35458,7 +35458,7 @@
     </row>
     <row r="368" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A368" s="7" t="s">
-        <v>277</v>
+        <v>318</v>
       </c>
       <c r="B368" s="7">
         <v>148.1</v>
@@ -35529,7 +35529,7 @@
     </row>
     <row r="369" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A369" s="7" t="s">
-        <v>277</v>
+        <v>318</v>
       </c>
       <c r="B369" s="7">
         <v>120.36</v>
@@ -35600,7 +35600,7 @@
     </row>
     <row r="370" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A370" s="7" t="s">
-        <v>277</v>
+        <v>318</v>
       </c>
       <c r="B370" s="7">
         <v>21.37</v>
@@ -35671,7 +35671,7 @@
     </row>
     <row r="371" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A371" s="7" t="s">
-        <v>277</v>
+        <v>318</v>
       </c>
       <c r="B371" s="7">
         <v>148.47999999999999</v>
@@ -35742,7 +35742,7 @@
     </row>
     <row r="372" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A372" s="7" t="s">
-        <v>277</v>
+        <v>318</v>
       </c>
       <c r="B372" s="7">
         <v>241.84</v>
@@ -35813,7 +35813,7 @@
     </row>
     <row r="373" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A373" s="7" t="s">
-        <v>277</v>
+        <v>318</v>
       </c>
       <c r="B373" s="7">
         <v>264.06</v>
@@ -35884,7 +35884,7 @@
     </row>
     <row r="374" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A374" s="7" t="s">
-        <v>279</v>
+        <v>319</v>
       </c>
       <c r="B374" s="7">
         <v>2285</v>
@@ -35955,7 +35955,7 @@
     </row>
     <row r="375" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A375" s="7" t="s">
-        <v>279</v>
+        <v>319</v>
       </c>
       <c r="B375" s="7">
         <v>1115</v>
@@ -36026,7 +36026,7 @@
     </row>
     <row r="376" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A376" s="7" t="s">
-        <v>279</v>
+        <v>319</v>
       </c>
       <c r="B376" s="7">
         <v>663</v>
@@ -36097,7 +36097,7 @@
     </row>
     <row r="377" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A377" s="7" t="s">
-        <v>279</v>
+        <v>319</v>
       </c>
       <c r="B377" s="7">
         <v>242</v>
@@ -36172,20 +36172,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="5fc1f8ac-1ba6-4b7e-b585-ad68a249b158" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="5fc1f8ac-1ba6-4b7e-b585-ad68a249b158" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -36345,14 +36345,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C90E48D4-6599-4319-AC89-A7C262902106}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9017D58E-720F-4F76-8FD5-84EEAE785E08}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -36364,6 +36356,14 @@
     <ds:schemaRef ds:uri="5fc1f8ac-1ba6-4b7e-b585-ad68a249b158"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C90E48D4-6599-4319-AC89-A7C262902106}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
